--- a/biology/Microbiologie/Rhodobacterales/Rhodobacterales.xlsx
+++ b/biology/Microbiologie/Rhodobacterales/Rhodobacterales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rhodobacterales sont un ordre d’Alphaproteobacteria[1],[2].
-Les agents de transfert de gènes sont des éléments de type viral, produits par les Rhodobacterales, qui transfèrent l'ADN et peuvent être un facteur important dans leur évolution[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rhodobacterales sont un ordre d’Alphaproteobacteria,.
+Les agents de transfert de gènes sont des éléments de type viral, produits par les Rhodobacterales, qui transfèrent l'ADN et peuvent être un facteur important dans leur évolution.
 </t>
         </is>
       </c>
@@ -512,18 +524,20 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 novembre 2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 novembre 2021) :
 famille des Hyphomonadaceae K.B. Lee &amp; al., 2005
 famille des Rhodobacteraceae Garrity, Bell &amp; Lilburb, 2006
-Selon ITIS      (26 novembre 2021)[1] :
+Selon ITIS      (26 novembre 2021) :
 famille des Rhodobacteraceae Garrity &amp; al., 2006
-Selon NCBI  (26 novembre 2021)[2] :
+Selon NCBI  (26 novembre 2021) :
 famille des Neomegalonemataceae Hördt &amp; al. 2020
 famille des Rhodobacteraceae Garrity &amp; al. 2006
 famille des Roseobacteraceae "" Liang &amp; al. 2021
-Selon World Register of Marine Species                               (26 novembre 2021)[5] :
+Selon World Register of Marine Species                               (26 novembre 2021) :
 famille des Hyphomonadaceae
 famille des Phyllobacteriaceae
 famille des Rhodobacteraceae
